--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ33"/>
+  <dimension ref="A1:GR33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,6 +1422,11 @@
       <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>2024-01</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02</t>
         </is>
       </c>
     </row>
@@ -1887,8 +1892,9 @@
         <v>48.73</v>
       </c>
       <c r="GQ2" t="n">
-        <v>48.73</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="GR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2496,8 +2502,9 @@
         <v>1907.273</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1907.273</v>
-      </c>
+        <v>1874.768</v>
+      </c>
+      <c r="GR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2817,8 +2824,9 @@
         <v>1.041</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1.041</v>
-      </c>
+        <v>1.026</v>
+      </c>
+      <c r="GR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3138,8 +3146,9 @@
         <v>40.744</v>
       </c>
       <c r="GQ5" t="n">
-        <v>40.744</v>
-      </c>
+        <v>40.148</v>
+      </c>
+      <c r="GR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3603,8 +3612,9 @@
         <v>1117.727</v>
       </c>
       <c r="GQ6" t="n">
-        <v>926.995</v>
-      </c>
+        <v>930.173</v>
+      </c>
+      <c r="GR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4212,8 +4222,9 @@
         <v>43747.101</v>
       </c>
       <c r="GQ7" t="n">
-        <v>36281.98</v>
-      </c>
+        <v>36406.319</v>
+      </c>
+      <c r="GR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4677,8 +4688,9 @@
         <v>608.401</v>
       </c>
       <c r="GQ8" t="n">
-        <v>959.3869999999999</v>
-      </c>
+        <v>960.692</v>
+      </c>
+      <c r="GR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5286,8 +5298,9 @@
         <v>23812.39</v>
       </c>
       <c r="GQ9" t="n">
-        <v>37549.767</v>
-      </c>
+        <v>37600.849</v>
+      </c>
+      <c r="GR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5529,6 +5542,7 @@
       <c r="GQ10" t="n">
         <v>0</v>
       </c>
+      <c r="GR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5770,6 +5784,7 @@
       <c r="GQ11" t="n">
         <v>0</v>
       </c>
+      <c r="GR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6233,8 +6248,9 @@
         <v>-355.508</v>
       </c>
       <c r="GQ12" t="n">
-        <v>-1020.356</v>
-      </c>
+        <v>-1012.019</v>
+      </c>
+      <c r="GR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6842,8 +6858,9 @@
         <v>-13914.348</v>
       </c>
       <c r="GQ13" t="n">
-        <v>-39936.066</v>
-      </c>
+        <v>-39609.75</v>
+      </c>
+      <c r="GR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7141,6 +7158,7 @@
       <c r="GQ14" t="n">
         <v>0</v>
       </c>
+      <c r="GR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7438,6 +7456,7 @@
       <c r="GQ15" t="n">
         <v>0</v>
       </c>
+      <c r="GR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7901,8 +7920,9 @@
         <v>915.552</v>
       </c>
       <c r="GQ16" t="n">
-        <v>0</v>
-      </c>
+        <v>1040.509</v>
+      </c>
+      <c r="GR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8390,8 +8410,9 @@
         <v>35834.109</v>
       </c>
       <c r="GQ17" t="n">
-        <v>0</v>
-      </c>
+        <v>40724.846</v>
+      </c>
+      <c r="GR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -8855,8 +8876,9 @@
         <v>914.605</v>
       </c>
       <c r="GQ18" t="n">
-        <v>1037.735</v>
-      </c>
+        <v>1030.426</v>
+      </c>
+      <c r="GR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9464,8 +9486,9 @@
         <v>35797.076</v>
       </c>
       <c r="GQ19" t="n">
-        <v>40616.296</v>
-      </c>
+        <v>40330.136</v>
+      </c>
+      <c r="GR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -9929,8 +9952,9 @@
         <v>207.817</v>
       </c>
       <c r="GQ20" t="n">
-        <v>0</v>
-      </c>
+        <v>265.466</v>
+      </c>
+      <c r="GR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10466,8 +10490,9 @@
         <v>8133.813</v>
       </c>
       <c r="GQ21" t="n">
-        <v>0</v>
-      </c>
+        <v>10390.153</v>
+      </c>
+      <c r="GR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -10931,8 +10956,9 @@
         <v>9.981</v>
       </c>
       <c r="GQ22" t="n">
-        <v>0</v>
-      </c>
+        <v>9.425000000000001</v>
+      </c>
+      <c r="GR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11540,8 +11566,9 @@
         <v>390.664</v>
       </c>
       <c r="GQ23" t="n">
-        <v>0</v>
-      </c>
+        <v>368.903</v>
+      </c>
+      <c r="GR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11839,6 +11866,7 @@
       <c r="GQ24" t="n">
         <v>0</v>
       </c>
+      <c r="GR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12136,6 +12164,7 @@
       <c r="GQ25" t="n">
         <v>0</v>
       </c>
+      <c r="GR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12433,6 +12462,7 @@
       <c r="GQ26" t="n">
         <v>0</v>
       </c>
+      <c r="GR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -12730,6 +12760,7 @@
       <c r="GQ27" t="n">
         <v>0</v>
       </c>
+      <c r="GR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -12954,9 +12985,8 @@
       <c r="GN28" t="inlineStr"/>
       <c r="GO28" t="inlineStr"/>
       <c r="GP28" t="inlineStr"/>
-      <c r="GQ28" t="n">
-        <v>0</v>
-      </c>
+      <c r="GQ28" t="inlineStr"/>
+      <c r="GR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13181,9 +13211,8 @@
       <c r="GN29" t="inlineStr"/>
       <c r="GO29" t="inlineStr"/>
       <c r="GP29" t="inlineStr"/>
-      <c r="GQ29" t="n">
-        <v>0</v>
-      </c>
+      <c r="GQ29" t="inlineStr"/>
+      <c r="GR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13417,8 +13446,9 @@
         <v>289.8</v>
       </c>
       <c r="GQ30" t="n">
-        <v>0</v>
-      </c>
+        <v>314.378</v>
+      </c>
+      <c r="GR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -13652,8 +13682,9 @@
         <v>11342.576</v>
       </c>
       <c r="GQ31" t="n">
-        <v>0</v>
-      </c>
+        <v>12304.56</v>
+      </c>
+      <c r="GR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -13973,8 +14004,9 @@
         <v>-0.947</v>
       </c>
       <c r="GQ32" t="n">
-        <v>1037.735</v>
-      </c>
+        <v>-10.083</v>
+      </c>
+      <c r="GR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -14294,8 +14326,9 @@
         <v>-37.033</v>
       </c>
       <c r="GQ33" t="n">
-        <v>40616.296</v>
-      </c>
+        <v>-394.71</v>
+      </c>
+      <c r="GR33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -1894,7 +1894,9 @@
       <c r="GQ2" t="n">
         <v>47.9</v>
       </c>
-      <c r="GR2" t="inlineStr"/>
+      <c r="GR2" t="n">
+        <v>44.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2504,7 +2506,9 @@
       <c r="GQ3" t="n">
         <v>1874.768</v>
       </c>
-      <c r="GR3" t="inlineStr"/>
+      <c r="GR3" t="n">
+        <v>1753.816</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2826,7 +2830,9 @@
       <c r="GQ4" t="n">
         <v>1.026</v>
       </c>
-      <c r="GR4" t="inlineStr"/>
+      <c r="GR4" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3148,7 +3154,9 @@
       <c r="GQ5" t="n">
         <v>40.148</v>
       </c>
-      <c r="GR5" t="inlineStr"/>
+      <c r="GR5" t="n">
+        <v>37.558</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3614,7 +3622,9 @@
       <c r="GQ6" t="n">
         <v>930.173</v>
       </c>
-      <c r="GR6" t="inlineStr"/>
+      <c r="GR6" t="n">
+        <v>857.794</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4224,7 +4234,9 @@
       <c r="GQ7" t="n">
         <v>36406.319</v>
       </c>
-      <c r="GR7" t="inlineStr"/>
+      <c r="GR7" t="n">
+        <v>33573.481</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4690,7 +4702,9 @@
       <c r="GQ8" t="n">
         <v>960.692</v>
       </c>
-      <c r="GR8" t="inlineStr"/>
+      <c r="GR8" t="n">
+        <v>515.7619999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5300,7 +5314,9 @@
       <c r="GQ9" t="n">
         <v>37600.849</v>
       </c>
-      <c r="GR9" t="inlineStr"/>
+      <c r="GR9" t="n">
+        <v>20186.592</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5542,7 +5558,9 @@
       <c r="GQ10" t="n">
         <v>0</v>
       </c>
-      <c r="GR10" t="inlineStr"/>
+      <c r="GR10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5784,7 +5802,9 @@
       <c r="GQ11" t="n">
         <v>0</v>
       </c>
-      <c r="GR11" t="inlineStr"/>
+      <c r="GR11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6250,7 +6270,9 @@
       <c r="GQ12" t="n">
         <v>-1012.019</v>
       </c>
-      <c r="GR12" t="inlineStr"/>
+      <c r="GR12" t="n">
+        <v>-307.887</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6860,7 +6882,9 @@
       <c r="GQ13" t="n">
         <v>-39609.75</v>
       </c>
-      <c r="GR13" t="inlineStr"/>
+      <c r="GR13" t="n">
+        <v>-12050.486</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7158,7 +7182,9 @@
       <c r="GQ14" t="n">
         <v>0</v>
       </c>
-      <c r="GR14" t="inlineStr"/>
+      <c r="GR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7456,7 +7482,9 @@
       <c r="GQ15" t="n">
         <v>0</v>
       </c>
-      <c r="GR15" t="inlineStr"/>
+      <c r="GR15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7922,7 +7950,9 @@
       <c r="GQ16" t="n">
         <v>1040.509</v>
       </c>
-      <c r="GR16" t="inlineStr"/>
+      <c r="GR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8412,7 +8442,9 @@
       <c r="GQ17" t="n">
         <v>40724.846</v>
       </c>
-      <c r="GR17" t="inlineStr"/>
+      <c r="GR17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -8878,7 +8910,9 @@
       <c r="GQ18" t="n">
         <v>1030.426</v>
       </c>
-      <c r="GR18" t="inlineStr"/>
+      <c r="GR18" t="n">
+        <v>695.689</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9488,7 +9522,9 @@
       <c r="GQ19" t="n">
         <v>40330.136</v>
       </c>
-      <c r="GR19" t="inlineStr"/>
+      <c r="GR19" t="n">
+        <v>27228.749</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -9954,7 +9990,9 @@
       <c r="GQ20" t="n">
         <v>265.466</v>
       </c>
-      <c r="GR20" t="inlineStr"/>
+      <c r="GR20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10492,7 +10530,9 @@
       <c r="GQ21" t="n">
         <v>10390.153</v>
       </c>
-      <c r="GR21" t="inlineStr"/>
+      <c r="GR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -10958,7 +10998,9 @@
       <c r="GQ22" t="n">
         <v>9.425000000000001</v>
       </c>
-      <c r="GR22" t="inlineStr"/>
+      <c r="GR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11568,7 +11610,9 @@
       <c r="GQ23" t="n">
         <v>368.903</v>
       </c>
-      <c r="GR23" t="inlineStr"/>
+      <c r="GR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11866,7 +11910,9 @@
       <c r="GQ24" t="n">
         <v>0</v>
       </c>
-      <c r="GR24" t="inlineStr"/>
+      <c r="GR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12164,7 +12210,9 @@
       <c r="GQ25" t="n">
         <v>0</v>
       </c>
-      <c r="GR25" t="inlineStr"/>
+      <c r="GR25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12462,7 +12510,9 @@
       <c r="GQ26" t="n">
         <v>0</v>
       </c>
-      <c r="GR26" t="inlineStr"/>
+      <c r="GR26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -12760,7 +12810,9 @@
       <c r="GQ27" t="n">
         <v>0</v>
       </c>
-      <c r="GR27" t="inlineStr"/>
+      <c r="GR27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -12986,7 +13038,9 @@
       <c r="GO28" t="inlineStr"/>
       <c r="GP28" t="inlineStr"/>
       <c r="GQ28" t="inlineStr"/>
-      <c r="GR28" t="inlineStr"/>
+      <c r="GR28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13212,7 +13266,9 @@
       <c r="GO29" t="inlineStr"/>
       <c r="GP29" t="inlineStr"/>
       <c r="GQ29" t="inlineStr"/>
-      <c r="GR29" t="inlineStr"/>
+      <c r="GR29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13448,7 +13504,9 @@
       <c r="GQ30" t="n">
         <v>314.378</v>
       </c>
-      <c r="GR30" t="inlineStr"/>
+      <c r="GR30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -13684,7 +13742,9 @@
       <c r="GQ31" t="n">
         <v>12304.56</v>
       </c>
-      <c r="GR31" t="inlineStr"/>
+      <c r="GR31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -14006,7 +14066,9 @@
       <c r="GQ32" t="n">
         <v>-10.083</v>
       </c>
-      <c r="GR32" t="inlineStr"/>
+      <c r="GR32" t="n">
+        <v>695.689</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -14328,7 +14390,9 @@
       <c r="GQ33" t="n">
         <v>-394.71</v>
       </c>
-      <c r="GR33" t="inlineStr"/>
+      <c r="GR33" t="n">
+        <v>27228.749</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -1895,7 +1895,7 @@
         <v>47.9</v>
       </c>
       <c r="GR2" t="n">
-        <v>44.81</v>
+        <v>44.663</v>
       </c>
     </row>
     <row r="3">
@@ -2507,7 +2507,7 @@
         <v>1874.768</v>
       </c>
       <c r="GR3" t="n">
-        <v>1753.816</v>
+        <v>1748.095</v>
       </c>
     </row>
     <row r="4">
@@ -2831,7 +2831,7 @@
         <v>1.026</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.96</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="5">
@@ -3155,7 +3155,7 @@
         <v>40.148</v>
       </c>
       <c r="GR5" t="n">
-        <v>37.558</v>
+        <v>35.741</v>
       </c>
     </row>
     <row r="6">
@@ -3623,7 +3623,7 @@
         <v>930.173</v>
       </c>
       <c r="GR6" t="n">
-        <v>857.794</v>
+        <v>860.468</v>
       </c>
     </row>
     <row r="7">
@@ -4235,7 +4235,7 @@
         <v>36406.319</v>
       </c>
       <c r="GR7" t="n">
-        <v>33573.481</v>
+        <v>33678.155</v>
       </c>
     </row>
     <row r="8">
@@ -4703,7 +4703,7 @@
         <v>960.692</v>
       </c>
       <c r="GR8" t="n">
-        <v>515.7619999999999</v>
+        <v>517.147</v>
       </c>
     </row>
     <row r="9">
@@ -5315,7 +5315,7 @@
         <v>37600.849</v>
       </c>
       <c r="GR9" t="n">
-        <v>20186.592</v>
+        <v>20240.769</v>
       </c>
     </row>
     <row r="10">
@@ -6271,7 +6271,7 @@
         <v>-1012.019</v>
       </c>
       <c r="GR12" t="n">
-        <v>-307.887</v>
+        <v>-309.906</v>
       </c>
     </row>
     <row r="13">
@@ -6883,7 +6883,7 @@
         <v>-39609.75</v>
       </c>
       <c r="GR13" t="n">
-        <v>-12050.486</v>
+        <v>-12129.499</v>
       </c>
     </row>
     <row r="14">
@@ -7951,7 +7951,7 @@
         <v>1040.509</v>
       </c>
       <c r="GR16" t="n">
-        <v>0</v>
+        <v>686.809</v>
       </c>
     </row>
     <row r="17">
@@ -8443,7 +8443,7 @@
         <v>40724.846</v>
       </c>
       <c r="GR17" t="n">
-        <v>0</v>
+        <v>26881.237</v>
       </c>
     </row>
     <row r="18">
@@ -8911,7 +8911,7 @@
         <v>1030.426</v>
       </c>
       <c r="GR18" t="n">
-        <v>695.689</v>
+        <v>698.803</v>
       </c>
     </row>
     <row r="19">
@@ -9523,7 +9523,7 @@
         <v>40330.136</v>
       </c>
       <c r="GR19" t="n">
-        <v>27228.749</v>
+        <v>27350.721</v>
       </c>
     </row>
     <row r="20">
@@ -9991,7 +9991,7 @@
         <v>265.466</v>
       </c>
       <c r="GR20" t="n">
-        <v>0</v>
+        <v>140.333</v>
       </c>
     </row>
     <row r="21">
@@ -10531,7 +10531,7 @@
         <v>10390.153</v>
       </c>
       <c r="GR21" t="n">
-        <v>0</v>
+        <v>5492.544</v>
       </c>
     </row>
     <row r="22">
@@ -10999,7 +10999,7 @@
         <v>9.425000000000001</v>
       </c>
       <c r="GR22" t="n">
-        <v>0</v>
+        <v>10.163</v>
       </c>
     </row>
     <row r="23">
@@ -11611,7 +11611,7 @@
         <v>368.903</v>
       </c>
       <c r="GR23" t="n">
-        <v>0</v>
+        <v>397.766</v>
       </c>
     </row>
     <row r="24">
@@ -13038,9 +13038,7 @@
       <c r="GO28" t="inlineStr"/>
       <c r="GP28" t="inlineStr"/>
       <c r="GQ28" t="inlineStr"/>
-      <c r="GR28" t="n">
-        <v>0</v>
-      </c>
+      <c r="GR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13266,9 +13264,7 @@
       <c r="GO29" t="inlineStr"/>
       <c r="GP29" t="inlineStr"/>
       <c r="GQ29" t="inlineStr"/>
-      <c r="GR29" t="n">
-        <v>0</v>
-      </c>
+      <c r="GR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13505,7 +13501,7 @@
         <v>314.378</v>
       </c>
       <c r="GR30" t="n">
-        <v>0</v>
+        <v>161.063</v>
       </c>
     </row>
     <row r="31">
@@ -13743,7 +13739,7 @@
         <v>12304.56</v>
       </c>
       <c r="GR31" t="n">
-        <v>0</v>
+        <v>6303.91</v>
       </c>
     </row>
     <row r="32">
@@ -14067,7 +14063,7 @@
         <v>-10.083</v>
       </c>
       <c r="GR32" t="n">
-        <v>695.689</v>
+        <v>11.994</v>
       </c>
     </row>
     <row r="33">
@@ -14391,7 +14387,7 @@
         <v>-394.71</v>
       </c>
       <c r="GR33" t="n">
-        <v>27228.749</v>
+        <v>469.484</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR33"/>
+  <dimension ref="A1:GS33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,6 +1427,11 @@
       <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>2024-02</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03</t>
         </is>
       </c>
     </row>
@@ -1897,6 +1902,9 @@
       <c r="GR2" t="n">
         <v>44.663</v>
       </c>
+      <c r="GS2" t="n">
+        <v>47.744</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2508,6 +2516,9 @@
       </c>
       <c r="GR3" t="n">
         <v>1748.095</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1868.653</v>
       </c>
     </row>
     <row r="4">
@@ -2833,6 +2844,9 @@
       <c r="GR4" t="n">
         <v>0.913</v>
       </c>
+      <c r="GS4" t="n">
+        <v>0.976</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3157,6 +3171,9 @@
       <c r="GR5" t="n">
         <v>35.741</v>
       </c>
+      <c r="GS5" t="n">
+        <v>38.205</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3625,6 +3642,9 @@
       <c r="GR6" t="n">
         <v>860.468</v>
       </c>
+      <c r="GS6" t="n">
+        <v>1094.235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4236,6 +4256,9 @@
       </c>
       <c r="GR7" t="n">
         <v>33678.155</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>42827.651</v>
       </c>
     </row>
     <row r="8">
@@ -4705,6 +4728,9 @@
       <c r="GR8" t="n">
         <v>517.147</v>
       </c>
+      <c r="GS8" t="n">
+        <v>895.249</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5316,6 +5342,9 @@
       </c>
       <c r="GR9" t="n">
         <v>20240.769</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>35039.435</v>
       </c>
     </row>
     <row r="10">
@@ -5561,6 +5590,9 @@
       <c r="GR10" t="n">
         <v>0</v>
       </c>
+      <c r="GS10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5805,6 +5837,9 @@
       <c r="GR11" t="n">
         <v>0</v>
       </c>
+      <c r="GS11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6273,6 +6308,9 @@
       <c r="GR12" t="n">
         <v>-309.906</v>
       </c>
+      <c r="GS12" t="n">
+        <v>-370.635</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6884,6 +6922,9 @@
       </c>
       <c r="GR13" t="n">
         <v>-12129.499</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>-14506.408</v>
       </c>
     </row>
     <row r="14">
@@ -7185,6 +7226,9 @@
       <c r="GR14" t="n">
         <v>0</v>
       </c>
+      <c r="GS14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7485,6 +7529,9 @@
       <c r="GR15" t="n">
         <v>0</v>
       </c>
+      <c r="GS15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7953,6 +8000,9 @@
       <c r="GR16" t="n">
         <v>686.809</v>
       </c>
+      <c r="GS16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8444,6 +8494,9 @@
       </c>
       <c r="GR17" t="n">
         <v>26881.237</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8913,6 +8966,9 @@
       <c r="GR18" t="n">
         <v>698.803</v>
       </c>
+      <c r="GS18" t="n">
+        <v>618.341</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9524,6 +9580,9 @@
       </c>
       <c r="GR19" t="n">
         <v>27350.721</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>24201.482</v>
       </c>
     </row>
     <row r="20">
@@ -9993,6 +10052,9 @@
       <c r="GR20" t="n">
         <v>140.333</v>
       </c>
+      <c r="GS20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10532,6 +10594,9 @@
       </c>
       <c r="GR21" t="n">
         <v>5492.544</v>
+      </c>
+      <c r="GS21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -11001,6 +11066,9 @@
       <c r="GR22" t="n">
         <v>10.163</v>
       </c>
+      <c r="GS22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11612,6 +11680,9 @@
       </c>
       <c r="GR23" t="n">
         <v>397.766</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -11913,6 +11984,9 @@
       <c r="GR24" t="n">
         <v>0</v>
       </c>
+      <c r="GS24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12213,6 +12287,9 @@
       <c r="GR25" t="n">
         <v>0</v>
       </c>
+      <c r="GS25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12513,6 +12590,9 @@
       <c r="GR26" t="n">
         <v>0</v>
       </c>
+      <c r="GS26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -12811,6 +12891,9 @@
         <v>0</v>
       </c>
       <c r="GR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13039,6 +13122,9 @@
       <c r="GP28" t="inlineStr"/>
       <c r="GQ28" t="inlineStr"/>
       <c r="GR28" t="inlineStr"/>
+      <c r="GS28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13265,6 +13351,9 @@
       <c r="GP29" t="inlineStr"/>
       <c r="GQ29" t="inlineStr"/>
       <c r="GR29" t="inlineStr"/>
+      <c r="GS29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13503,6 +13592,9 @@
       <c r="GR30" t="n">
         <v>161.063</v>
       </c>
+      <c r="GS30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -13741,6 +13833,9 @@
       <c r="GR31" t="n">
         <v>6303.91</v>
       </c>
+      <c r="GS31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -14065,6 +14160,9 @@
       <c r="GR32" t="n">
         <v>11.994</v>
       </c>
+      <c r="GS32" t="n">
+        <v>618.341</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -14389,6 +14487,9 @@
       <c r="GR33" t="n">
         <v>469.484</v>
       </c>
+      <c r="GS33" t="n">
+        <v>24201.482</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GS33"/>
+  <dimension ref="A1:GU33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,6 +1432,16 @@
       <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>2024-03</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05</t>
         </is>
       </c>
     </row>
@@ -1903,8 +1913,12 @@
         <v>44.663</v>
       </c>
       <c r="GS2" t="n">
-        <v>47.744</v>
-      </c>
+        <v>47.878</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>46.333</v>
+      </c>
+      <c r="GU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2518,8 +2532,12 @@
         <v>1748.095</v>
       </c>
       <c r="GS3" t="n">
-        <v>1868.653</v>
-      </c>
+        <v>1873.908</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>1813.459</v>
+      </c>
+      <c r="GU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2845,8 +2863,12 @@
         <v>0.913</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.976</v>
-      </c>
+        <v>0.966</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="GU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3172,8 +3194,12 @@
         <v>35.741</v>
       </c>
       <c r="GS5" t="n">
-        <v>38.205</v>
-      </c>
+        <v>37.798</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>36.579</v>
+      </c>
+      <c r="GU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3643,8 +3669,12 @@
         <v>860.468</v>
       </c>
       <c r="GS6" t="n">
-        <v>1094.235</v>
-      </c>
+        <v>1096.266</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>1231.235</v>
+      </c>
+      <c r="GU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4258,8 +4288,12 @@
         <v>33678.155</v>
       </c>
       <c r="GS7" t="n">
-        <v>42827.651</v>
-      </c>
+        <v>42907.139</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>48189.727</v>
+      </c>
+      <c r="GU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4729,8 +4763,12 @@
         <v>517.147</v>
       </c>
       <c r="GS8" t="n">
-        <v>895.249</v>
-      </c>
+        <v>896.204</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>724.65</v>
+      </c>
+      <c r="GU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5344,8 +5382,12 @@
         <v>20240.769</v>
       </c>
       <c r="GS9" t="n">
-        <v>35039.435</v>
-      </c>
+        <v>35076.83</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>28362.332</v>
+      </c>
+      <c r="GU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5593,6 +5635,10 @@
       <c r="GS10" t="n">
         <v>0</v>
       </c>
+      <c r="GT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5840,6 +5886,10 @@
       <c r="GS11" t="n">
         <v>0</v>
       </c>
+      <c r="GT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6309,8 +6359,12 @@
         <v>-309.906</v>
       </c>
       <c r="GS12" t="n">
-        <v>-370.635</v>
-      </c>
+        <v>-372.557</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>69.422</v>
+      </c>
+      <c r="GU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6924,8 +6978,12 @@
         <v>-12129.499</v>
       </c>
       <c r="GS13" t="n">
-        <v>-14506.408</v>
-      </c>
+        <v>-14581.667</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>2717.134</v>
+      </c>
+      <c r="GU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7229,6 +7287,10 @@
       <c r="GS14" t="n">
         <v>0</v>
       </c>
+      <c r="GT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7532,6 +7594,10 @@
       <c r="GS15" t="n">
         <v>0</v>
       </c>
+      <c r="GT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8001,8 +8067,12 @@
         <v>686.809</v>
       </c>
       <c r="GS16" t="n">
-        <v>0</v>
-      </c>
+        <v>617.26</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8496,8 +8566,12 @@
         <v>26881.237</v>
       </c>
       <c r="GS17" t="n">
-        <v>0</v>
-      </c>
+        <v>24159.134</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -8967,8 +9041,12 @@
         <v>698.803</v>
       </c>
       <c r="GS18" t="n">
-        <v>618.341</v>
-      </c>
+        <v>621.463</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>484.431</v>
+      </c>
+      <c r="GU18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9582,8 +9660,12 @@
         <v>27350.721</v>
       </c>
       <c r="GS19" t="n">
-        <v>24201.482</v>
-      </c>
+        <v>24323.682</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>18960.299</v>
+      </c>
+      <c r="GU19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10053,8 +10135,12 @@
         <v>140.333</v>
       </c>
       <c r="GS20" t="n">
-        <v>0</v>
-      </c>
+        <v>112.5</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10596,8 +10682,12 @@
         <v>5492.544</v>
       </c>
       <c r="GS21" t="n">
-        <v>0</v>
-      </c>
+        <v>4403.158</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11067,8 +11157,12 @@
         <v>10.163</v>
       </c>
       <c r="GS22" t="n">
-        <v>0</v>
-      </c>
+        <v>14.359</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11682,8 +11776,12 @@
         <v>397.766</v>
       </c>
       <c r="GS23" t="n">
-        <v>0</v>
-      </c>
+        <v>561.984</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11987,6 +12085,10 @@
       <c r="GS24" t="n">
         <v>0</v>
       </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12290,6 +12392,10 @@
       <c r="GS25" t="n">
         <v>0</v>
       </c>
+      <c r="GT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12593,6 +12699,10 @@
       <c r="GS26" t="n">
         <v>0</v>
       </c>
+      <c r="GT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -12896,6 +13006,10 @@
       <c r="GS27" t="n">
         <v>0</v>
       </c>
+      <c r="GT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13122,9 +13236,11 @@
       <c r="GP28" t="inlineStr"/>
       <c r="GQ28" t="inlineStr"/>
       <c r="GR28" t="inlineStr"/>
-      <c r="GS28" t="n">
-        <v>0</v>
-      </c>
+      <c r="GS28" t="inlineStr"/>
+      <c r="GT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13351,9 +13467,11 @@
       <c r="GP29" t="inlineStr"/>
       <c r="GQ29" t="inlineStr"/>
       <c r="GR29" t="inlineStr"/>
-      <c r="GS29" t="n">
-        <v>0</v>
-      </c>
+      <c r="GS29" t="inlineStr"/>
+      <c r="GT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13593,8 +13711,12 @@
         <v>161.063</v>
       </c>
       <c r="GS30" t="n">
-        <v>0</v>
-      </c>
+        <v>92.524</v>
+      </c>
+      <c r="GT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -13834,8 +13956,12 @@
         <v>6303.91</v>
       </c>
       <c r="GS31" t="n">
-        <v>0</v>
-      </c>
+        <v>3621.324</v>
+      </c>
+      <c r="GT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -14161,8 +14287,12 @@
         <v>11.994</v>
       </c>
       <c r="GS32" t="n">
-        <v>618.341</v>
-      </c>
+        <v>4.203</v>
+      </c>
+      <c r="GT32" t="n">
+        <v>484.431</v>
+      </c>
+      <c r="GU32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -14488,8 +14618,12 @@
         <v>469.484</v>
       </c>
       <c r="GS33" t="n">
-        <v>24201.482</v>
-      </c>
+        <v>164.548</v>
+      </c>
+      <c r="GT33" t="n">
+        <v>18960.299</v>
+      </c>
+      <c r="GU33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GU33"/>
+  <dimension ref="A1:GY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,6 +1442,26 @@
       <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>2024-05</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
@@ -1916,9 +1936,21 @@
         <v>47.878</v>
       </c>
       <c r="GT2" t="n">
-        <v>46.333</v>
-      </c>
-      <c r="GU2" t="inlineStr"/>
+        <v>44.234</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>46.898</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>44.948</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>49.621</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>48.339</v>
+      </c>
+      <c r="GY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2535,9 +2567,21 @@
         <v>1873.908</v>
       </c>
       <c r="GT3" t="n">
-        <v>1813.459</v>
-      </c>
-      <c r="GU3" t="inlineStr"/>
+        <v>1731.272</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>1835.572</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1759.237</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>1942.117</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>1891.962</v>
+      </c>
+      <c r="GY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2866,9 +2910,21 @@
         <v>0.966</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="GU4" t="inlineStr"/>
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="GY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3197,9 +3253,21 @@
         <v>37.798</v>
       </c>
       <c r="GT5" t="n">
-        <v>36.579</v>
-      </c>
-      <c r="GU5" t="inlineStr"/>
+        <v>36.475</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>38.022</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>38.303</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>36.735</v>
+      </c>
+      <c r="GY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3672,9 +3740,21 @@
         <v>1096.266</v>
       </c>
       <c r="GT6" t="n">
-        <v>1231.235</v>
-      </c>
-      <c r="GU6" t="inlineStr"/>
+        <v>1232.93</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>1191.646</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>1291.411</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>1443.513</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>1384.926</v>
+      </c>
+      <c r="GY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4291,9 +4371,21 @@
         <v>42907.139</v>
       </c>
       <c r="GT7" t="n">
-        <v>48189.727</v>
-      </c>
-      <c r="GU7" t="inlineStr"/>
+        <v>48256.073</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>46640.228</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>50544.96</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>56498.167</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>54205.095</v>
+      </c>
+      <c r="GY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4766,9 +4858,21 @@
         <v>896.204</v>
       </c>
       <c r="GT8" t="n">
-        <v>724.65</v>
-      </c>
-      <c r="GU8" t="inlineStr"/>
+        <v>725.425</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>425.538</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>498.258</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>856.46</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>566.125</v>
+      </c>
+      <c r="GY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5385,9 +5489,21 @@
         <v>35076.83</v>
       </c>
       <c r="GT9" t="n">
-        <v>28362.332</v>
-      </c>
-      <c r="GU9" t="inlineStr"/>
+        <v>28392.665</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>16655.3</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>19501.496</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>33521.282</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>22157.761</v>
+      </c>
+      <c r="GY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5638,7 +5754,19 @@
       <c r="GT10" t="n">
         <v>0</v>
       </c>
-      <c r="GU10" t="inlineStr"/>
+      <c r="GU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5889,7 +6017,19 @@
       <c r="GT11" t="n">
         <v>0</v>
       </c>
-      <c r="GU11" t="inlineStr"/>
+      <c r="GU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6362,9 +6502,21 @@
         <v>-372.557</v>
       </c>
       <c r="GT12" t="n">
-        <v>69.422</v>
-      </c>
-      <c r="GU12" t="inlineStr"/>
+        <v>68.65000000000001</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>461.839</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>515.224</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>338.136</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>574.125</v>
+      </c>
+      <c r="GY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6981,9 +7133,21 @@
         <v>-14581.667</v>
       </c>
       <c r="GT13" t="n">
-        <v>2717.134</v>
-      </c>
-      <c r="GU13" t="inlineStr"/>
+        <v>2686.932</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>18076.067</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>20165.523</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>13234.428</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>22470.877</v>
+      </c>
+      <c r="GY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7290,7 +7454,19 @@
       <c r="GT14" t="n">
         <v>0</v>
       </c>
-      <c r="GU14" t="inlineStr"/>
+      <c r="GU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7597,7 +7773,19 @@
       <c r="GT15" t="n">
         <v>0</v>
       </c>
-      <c r="GU15" t="inlineStr"/>
+      <c r="GU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8070,9 +8258,21 @@
         <v>617.26</v>
       </c>
       <c r="GT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU16" t="inlineStr"/>
+        <v>478.681</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>354.519</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>329.903</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>305.208</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>292.866</v>
+      </c>
+      <c r="GY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8569,9 +8769,21 @@
         <v>24159.134</v>
       </c>
       <c r="GT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU17" t="inlineStr"/>
+        <v>18735.261</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>13875.621</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>12912.166</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>11945.63</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>11462.586</v>
+      </c>
+      <c r="GY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9044,9 +9256,21 @@
         <v>621.463</v>
       </c>
       <c r="GT18" t="n">
-        <v>484.431</v>
-      </c>
-      <c r="GU18" t="inlineStr"/>
+        <v>484.021</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>352.138</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>323.925</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>299.517</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>293.954</v>
+      </c>
+      <c r="GY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9663,9 +9887,21 @@
         <v>24323.682</v>
       </c>
       <c r="GT19" t="n">
-        <v>18960.299</v>
-      </c>
-      <c r="GU19" t="inlineStr"/>
+        <v>18944.223</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>13782.455</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>12678.208</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>11722.877</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>11505.154</v>
+      </c>
+      <c r="GY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10138,9 +10374,21 @@
         <v>112.5</v>
       </c>
       <c r="GT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU20" t="inlineStr"/>
+        <v>46.748</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>4.224</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>15.929</v>
+      </c>
+      <c r="GY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10685,9 +10933,21 @@
         <v>4403.158</v>
       </c>
       <c r="GT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU21" t="inlineStr"/>
+        <v>1829.668</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>151.95</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>308.018</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>165.314</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>623.4400000000001</v>
+      </c>
+      <c r="GY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11160,9 +11420,21 @@
         <v>14.359</v>
       </c>
       <c r="GT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU22" t="inlineStr"/>
+        <v>12.226</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>12.951</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>11.334</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>10.994</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="GY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11779,9 +12051,21 @@
         <v>561.984</v>
       </c>
       <c r="GT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU23" t="inlineStr"/>
+        <v>478.533</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>506.901</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>443.6</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>430.304</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>479.441</v>
+      </c>
+      <c r="GY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -12088,7 +12372,19 @@
       <c r="GT24" t="n">
         <v>0</v>
       </c>
-      <c r="GU24" t="inlineStr"/>
+      <c r="GU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12395,7 +12691,19 @@
       <c r="GT25" t="n">
         <v>0</v>
       </c>
-      <c r="GU25" t="inlineStr"/>
+      <c r="GU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12702,7 +13010,19 @@
       <c r="GT26" t="n">
         <v>0</v>
       </c>
-      <c r="GU26" t="inlineStr"/>
+      <c r="GU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13009,7 +13329,19 @@
       <c r="GT27" t="n">
         <v>0</v>
       </c>
-      <c r="GU27" t="inlineStr"/>
+      <c r="GU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13237,10 +13569,12 @@
       <c r="GQ28" t="inlineStr"/>
       <c r="GR28" t="inlineStr"/>
       <c r="GS28" t="inlineStr"/>
-      <c r="GT28" t="n">
-        <v>0</v>
-      </c>
+      <c r="GT28" t="inlineStr"/>
       <c r="GU28" t="inlineStr"/>
+      <c r="GV28" t="inlineStr"/>
+      <c r="GW28" t="inlineStr"/>
+      <c r="GX28" t="inlineStr"/>
+      <c r="GY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13468,10 +13802,12 @@
       <c r="GQ29" t="inlineStr"/>
       <c r="GR29" t="inlineStr"/>
       <c r="GS29" t="inlineStr"/>
-      <c r="GT29" t="n">
-        <v>0</v>
-      </c>
+      <c r="GT29" t="inlineStr"/>
       <c r="GU29" t="inlineStr"/>
+      <c r="GV29" t="inlineStr"/>
+      <c r="GW29" t="inlineStr"/>
+      <c r="GX29" t="inlineStr"/>
+      <c r="GY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13714,9 +14050,21 @@
         <v>92.524</v>
       </c>
       <c r="GT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU30" t="inlineStr"/>
+        <v>123.067</v>
+      </c>
+      <c r="GU30" t="n">
+        <v>70.18899999999999</v>
+      </c>
+      <c r="GV30" t="n">
+        <v>54.091</v>
+      </c>
+      <c r="GW30" t="n">
+        <v>43.163</v>
+      </c>
+      <c r="GX30" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="GY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -13959,9 +14307,21 @@
         <v>3621.324</v>
       </c>
       <c r="GT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU31" t="inlineStr"/>
+        <v>4816.76</v>
+      </c>
+      <c r="GU31" t="n">
+        <v>2747.157</v>
+      </c>
+      <c r="GV31" t="n">
+        <v>2117.085</v>
+      </c>
+      <c r="GW31" t="n">
+        <v>1689.367</v>
+      </c>
+      <c r="GX31" t="n">
+        <v>1584.353</v>
+      </c>
+      <c r="GY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -14290,9 +14650,21 @@
         <v>4.203</v>
       </c>
       <c r="GT32" t="n">
-        <v>484.431</v>
-      </c>
-      <c r="GU32" t="inlineStr"/>
+        <v>5.34</v>
+      </c>
+      <c r="GU32" t="n">
+        <v>-2.381</v>
+      </c>
+      <c r="GV32" t="n">
+        <v>-5.978</v>
+      </c>
+      <c r="GW32" t="n">
+        <v>-5.691</v>
+      </c>
+      <c r="GX32" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="GY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -14621,9 +14993,21 @@
         <v>164.548</v>
       </c>
       <c r="GT33" t="n">
-        <v>18960.299</v>
-      </c>
-      <c r="GU33" t="inlineStr"/>
+        <v>208.962</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>-93.166</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>-233.958</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>-222.753</v>
+      </c>
+      <c r="GX33" t="n">
+        <v>42.568</v>
+      </c>
+      <c r="GY33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY33"/>
+  <dimension ref="A1:HA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,6 +1462,16 @@
       <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>2024-09</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1960,15 @@
       <c r="GX2" t="n">
         <v>48.339</v>
       </c>
-      <c r="GY2" t="inlineStr"/>
+      <c r="GY2" t="n">
+        <v>42.507</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>42.417</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>41.048</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2581,7 +2599,15 @@
       <c r="GX3" t="n">
         <v>1891.962</v>
       </c>
-      <c r="GY3" t="inlineStr"/>
+      <c r="GY3" t="n">
+        <v>1663.697</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>1660.154</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>1606.601</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2924,7 +2950,15 @@
       <c r="GX4" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="GY4" t="inlineStr"/>
+      <c r="GY4" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0.9360000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3267,7 +3301,15 @@
       <c r="GX5" t="n">
         <v>36.735</v>
       </c>
-      <c r="GY5" t="inlineStr"/>
+      <c r="GY5" t="n">
+        <v>36.946</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>37.853</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>36.632</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3754,7 +3796,15 @@
       <c r="GX6" t="n">
         <v>1384.926</v>
       </c>
-      <c r="GY6" t="inlineStr"/>
+      <c r="GY6" t="n">
+        <v>1293.64</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>1023.216</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>925.816</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4385,7 +4435,15 @@
       <c r="GX7" t="n">
         <v>54205.095</v>
       </c>
-      <c r="GY7" t="inlineStr"/>
+      <c r="GY7" t="n">
+        <v>50632.225</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>40047.99</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>36235.842</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4872,7 +4930,15 @@
       <c r="GX8" t="n">
         <v>566.125</v>
       </c>
-      <c r="GY8" t="inlineStr"/>
+      <c r="GY8" t="n">
+        <v>888.443</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>378.323</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>529.657</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5503,7 +5569,15 @@
       <c r="GX9" t="n">
         <v>22157.761</v>
       </c>
-      <c r="GY9" t="inlineStr"/>
+      <c r="GY9" t="n">
+        <v>34773.036</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>14807.353</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>20730.408</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5766,7 +5840,15 @@
       <c r="GX10" t="n">
         <v>0</v>
       </c>
-      <c r="GY10" t="inlineStr"/>
+      <c r="GY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6029,7 +6111,15 @@
       <c r="GX11" t="n">
         <v>0</v>
       </c>
-      <c r="GY11" t="inlineStr"/>
+      <c r="GY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6516,7 +6606,15 @@
       <c r="GX12" t="n">
         <v>574.125</v>
       </c>
-      <c r="GY12" t="inlineStr"/>
+      <c r="GY12" t="n">
+        <v>67.44499999999999</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>153.243</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>-499.813</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7147,7 +7245,15 @@
       <c r="GX13" t="n">
         <v>22470.877</v>
       </c>
-      <c r="GY13" t="inlineStr"/>
+      <c r="GY13" t="n">
+        <v>2639.763</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>5997.825</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>-19562.333</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7466,7 +7572,15 @@
       <c r="GX14" t="n">
         <v>0</v>
       </c>
-      <c r="GY14" t="inlineStr"/>
+      <c r="GY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7785,7 +7899,15 @@
       <c r="GX15" t="n">
         <v>0</v>
       </c>
-      <c r="GY15" t="inlineStr"/>
+      <c r="GY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8272,7 +8394,15 @@
       <c r="GX16" t="n">
         <v>292.866</v>
       </c>
-      <c r="GY16" t="inlineStr"/>
+      <c r="GY16" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>534.51</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8783,7 +8913,15 @@
       <c r="GX17" t="n">
         <v>11462.586</v>
       </c>
-      <c r="GY17" t="inlineStr"/>
+      <c r="GY17" t="n">
+        <v>14733.239</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>20920.369</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9270,7 +9408,15 @@
       <c r="GX18" t="n">
         <v>293.954</v>
       </c>
-      <c r="GY18" t="inlineStr"/>
+      <c r="GY18" t="n">
+        <v>381.203</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>535.034</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>937.956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9901,7 +10047,15 @@
       <c r="GX19" t="n">
         <v>11505.154</v>
       </c>
-      <c r="GY19" t="inlineStr"/>
+      <c r="GY19" t="n">
+        <v>14920.069</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>20940.819</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>36711</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10388,7 +10542,15 @@
       <c r="GX20" t="n">
         <v>15.929</v>
       </c>
-      <c r="GY20" t="inlineStr"/>
+      <c r="GY20" t="n">
+        <v>23.026</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>83.524</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10947,7 +11109,15 @@
       <c r="GX21" t="n">
         <v>623.4400000000001</v>
       </c>
-      <c r="GY21" t="inlineStr"/>
+      <c r="GY21" t="n">
+        <v>901.236</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>3269.088</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11434,7 +11604,15 @@
       <c r="GX22" t="n">
         <v>12.25</v>
       </c>
-      <c r="GY22" t="inlineStr"/>
+      <c r="GY22" t="n">
+        <v>16.474</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>10.345</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -12065,7 +12243,15 @@
       <c r="GX23" t="n">
         <v>479.441</v>
       </c>
-      <c r="GY23" t="inlineStr"/>
+      <c r="GY23" t="n">
+        <v>644.775</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>404.909</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -12384,7 +12570,15 @@
       <c r="GX24" t="n">
         <v>0</v>
       </c>
-      <c r="GY24" t="inlineStr"/>
+      <c r="GY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12703,7 +12897,15 @@
       <c r="GX25" t="n">
         <v>0</v>
       </c>
-      <c r="GY25" t="inlineStr"/>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -13022,7 +13224,15 @@
       <c r="GX26" t="n">
         <v>0</v>
       </c>
-      <c r="GY26" t="inlineStr"/>
+      <c r="GY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13341,7 +13551,15 @@
       <c r="GX27" t="n">
         <v>0</v>
       </c>
-      <c r="GY27" t="inlineStr"/>
+      <c r="GY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13575,6 +13793,10 @@
       <c r="GW28" t="inlineStr"/>
       <c r="GX28" t="inlineStr"/>
       <c r="GY28" t="inlineStr"/>
+      <c r="GZ28" t="inlineStr"/>
+      <c r="HA28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13808,6 +14030,10 @@
       <c r="GW29" t="inlineStr"/>
       <c r="GX29" t="inlineStr"/>
       <c r="GY29" t="inlineStr"/>
+      <c r="GZ29" t="inlineStr"/>
+      <c r="HA29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14064,7 +14290,15 @@
       <c r="GX30" t="n">
         <v>40.48</v>
       </c>
-      <c r="GY30" t="inlineStr"/>
+      <c r="GY30" t="n">
+        <v>71.072</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>140.356</v>
+      </c>
+      <c r="HA30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -14321,7 +14555,15 @@
       <c r="GX31" t="n">
         <v>1584.353</v>
       </c>
-      <c r="GY31" t="inlineStr"/>
+      <c r="GY31" t="n">
+        <v>2781.703</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>5493.426</v>
+      </c>
+      <c r="HA31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -14664,7 +14906,15 @@
       <c r="GX32" t="n">
         <v>1.088</v>
       </c>
-      <c r="GY32" t="inlineStr"/>
+      <c r="GY32" t="n">
+        <v>4.773</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="HA32" t="n">
+        <v>937.956</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -15007,7 +15257,15 @@
       <c r="GX33" t="n">
         <v>42.568</v>
       </c>
-      <c r="GY33" t="inlineStr"/>
+      <c r="GY33" t="n">
+        <v>186.83</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>36711</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA33"/>
+  <dimension ref="A1:HB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,6 +1472,11 @@
       <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>2024-11</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-12</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1972,10 @@
         <v>42.417</v>
       </c>
       <c r="HA2" t="n">
-        <v>41.048</v>
+        <v>43.094</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>44.531</v>
       </c>
     </row>
     <row r="3">
@@ -2606,7 +2614,10 @@
         <v>1660.154</v>
       </c>
       <c r="HA3" t="n">
-        <v>1606.601</v>
+        <v>1686.686</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>1742.909</v>
       </c>
     </row>
     <row r="4">
@@ -2957,7 +2968,10 @@
         <v>0.967</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.835</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0.863</v>
       </c>
     </row>
     <row r="5">
@@ -3308,7 +3322,10 @@
         <v>37.853</v>
       </c>
       <c r="HA5" t="n">
-        <v>36.632</v>
+        <v>32.684</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>33.773</v>
       </c>
     </row>
     <row r="6">
@@ -3803,7 +3820,10 @@
         <v>1023.216</v>
       </c>
       <c r="HA6" t="n">
-        <v>925.816</v>
+        <v>925.204</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>1149.566</v>
       </c>
     </row>
     <row r="7">
@@ -4442,7 +4462,10 @@
         <v>40047.99</v>
       </c>
       <c r="HA7" t="n">
-        <v>36235.842</v>
+        <v>36211.891</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>44993.267</v>
       </c>
     </row>
     <row r="8">
@@ -4937,7 +4960,10 @@
         <v>378.323</v>
       </c>
       <c r="HA8" t="n">
-        <v>529.657</v>
+        <v>534.159</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>1202.223</v>
       </c>
     </row>
     <row r="9">
@@ -5576,7 +5602,10 @@
         <v>14807.353</v>
       </c>
       <c r="HA9" t="n">
-        <v>20730.408</v>
+        <v>20906.649</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>47054.204</v>
       </c>
     </row>
     <row r="10">
@@ -5847,6 +5876,9 @@
         <v>0</v>
       </c>
       <c r="HA10" t="n">
+        <v>-15.867</v>
+      </c>
+      <c r="HB10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6118,6 +6150,9 @@
         <v>0</v>
       </c>
       <c r="HA11" t="n">
+        <v>-621</v>
+      </c>
+      <c r="HB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6613,7 +6648,10 @@
         <v>153.243</v>
       </c>
       <c r="HA12" t="n">
-        <v>-499.813</v>
+        <v>-499.504</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>-1012.998</v>
       </c>
     </row>
     <row r="13">
@@ -7252,7 +7290,10 @@
         <v>5997.825</v>
       </c>
       <c r="HA13" t="n">
-        <v>-19562.333</v>
+        <v>-19550.269</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>-39648.053</v>
       </c>
     </row>
     <row r="14">
@@ -7581,6 +7622,9 @@
       <c r="HA14" t="n">
         <v>0</v>
       </c>
+      <c r="HB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7908,6 +7952,9 @@
       <c r="HA15" t="n">
         <v>0</v>
       </c>
+      <c r="HB15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8401,6 +8448,9 @@
         <v>534.51</v>
       </c>
       <c r="HA16" t="n">
+        <v>956.178</v>
+      </c>
+      <c r="HB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8920,6 +8970,9 @@
         <v>20920.369</v>
       </c>
       <c r="HA17" t="n">
+        <v>37424.172</v>
+      </c>
+      <c r="HB17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9415,7 +9468,10 @@
         <v>535.034</v>
       </c>
       <c r="HA18" t="n">
-        <v>937.956</v>
+        <v>950.345</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>1005.735</v>
       </c>
     </row>
     <row r="19">
@@ -10054,7 +10110,10 @@
         <v>20940.819</v>
       </c>
       <c r="HA19" t="n">
-        <v>36711</v>
+        <v>37195.881</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>39363.798</v>
       </c>
     </row>
     <row r="20">
@@ -10549,6 +10608,9 @@
         <v>83.524</v>
       </c>
       <c r="HA20" t="n">
+        <v>307.55</v>
+      </c>
+      <c r="HB20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11116,6 +11178,9 @@
         <v>3269.088</v>
       </c>
       <c r="HA21" t="n">
+        <v>12037.318</v>
+      </c>
+      <c r="HB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11611,6 +11676,9 @@
         <v>10.345</v>
       </c>
       <c r="HA22" t="n">
+        <v>10.462</v>
+      </c>
+      <c r="HB22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12250,6 +12318,9 @@
         <v>404.909</v>
       </c>
       <c r="HA23" t="n">
+        <v>409.493</v>
+      </c>
+      <c r="HB23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12579,6 +12650,9 @@
       <c r="HA24" t="n">
         <v>0</v>
       </c>
+      <c r="HB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12906,6 +12980,9 @@
       <c r="HA25" t="n">
         <v>0</v>
       </c>
+      <c r="HB25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -13233,6 +13310,9 @@
       <c r="HA26" t="n">
         <v>0</v>
       </c>
+      <c r="HB26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13558,6 +13638,9 @@
         <v>0</v>
       </c>
       <c r="HA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13794,7 +13877,8 @@
       <c r="GX28" t="inlineStr"/>
       <c r="GY28" t="inlineStr"/>
       <c r="GZ28" t="inlineStr"/>
-      <c r="HA28" t="n">
+      <c r="HA28" t="inlineStr"/>
+      <c r="HB28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14031,7 +14115,8 @@
       <c r="GX29" t="inlineStr"/>
       <c r="GY29" t="inlineStr"/>
       <c r="GZ29" t="inlineStr"/>
-      <c r="HA29" t="n">
+      <c r="HA29" t="inlineStr"/>
+      <c r="HB29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14297,6 +14382,9 @@
         <v>140.356</v>
       </c>
       <c r="HA30" t="n">
+        <v>199.507</v>
+      </c>
+      <c r="HB30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14562,6 +14650,9 @@
         <v>5493.426</v>
       </c>
       <c r="HA31" t="n">
+        <v>7808.59</v>
+      </c>
+      <c r="HB31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14913,7 +15004,10 @@
         <v>0.524</v>
       </c>
       <c r="HA32" t="n">
-        <v>937.956</v>
+        <v>-5.833</v>
+      </c>
+      <c r="HB32" t="n">
+        <v>1005.735</v>
       </c>
     </row>
     <row r="33">
@@ -15264,7 +15358,10 @@
         <v>20.45</v>
       </c>
       <c r="HA33" t="n">
-        <v>36711</v>
+        <v>-228.291</v>
+      </c>
+      <c r="HB33" t="n">
+        <v>39363.798</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
+++ b/data/data_raw/eurostat/AT_gas_NRG_CB_GASM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB33"/>
+  <dimension ref="A1:HC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +1477,11 @@
       <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>2024-12</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2025-01</t>
         </is>
       </c>
     </row>
@@ -1975,8 +1980,9 @@
         <v>43.094</v>
       </c>
       <c r="HB2" t="n">
-        <v>44.531</v>
-      </c>
+        <v>45.573</v>
+      </c>
+      <c r="HC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2617,8 +2623,9 @@
         <v>1686.686</v>
       </c>
       <c r="HB3" t="n">
-        <v>1742.909</v>
-      </c>
+        <v>1783.681</v>
+      </c>
+      <c r="HC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2971,8 +2978,9 @@
         <v>0.835</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.863</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="HC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3325,8 +3333,9 @@
         <v>32.684</v>
       </c>
       <c r="HB5" t="n">
-        <v>33.773</v>
-      </c>
+        <v>37.184</v>
+      </c>
+      <c r="HC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3823,8 +3832,9 @@
         <v>925.204</v>
       </c>
       <c r="HB6" t="n">
-        <v>1149.566</v>
-      </c>
+        <v>1143.843</v>
+      </c>
+      <c r="HC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4465,8 +4475,9 @@
         <v>36211.891</v>
       </c>
       <c r="HB7" t="n">
-        <v>44993.267</v>
-      </c>
+        <v>44769.235</v>
+      </c>
+      <c r="HC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4963,8 +4974,9 @@
         <v>534.159</v>
       </c>
       <c r="HB8" t="n">
-        <v>1202.223</v>
-      </c>
+        <v>1211.748</v>
+      </c>
+      <c r="HC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5605,8 +5617,9 @@
         <v>20906.649</v>
       </c>
       <c r="HB9" t="n">
-        <v>47054.204</v>
-      </c>
+        <v>47427.007</v>
+      </c>
+      <c r="HC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5881,6 +5894,7 @@
       <c r="HB10" t="n">
         <v>0</v>
       </c>
+      <c r="HC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6155,6 +6169,7 @@
       <c r="HB11" t="n">
         <v>0</v>
       </c>
+      <c r="HC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6651,8 +6666,9 @@
         <v>-499.504</v>
       </c>
       <c r="HB12" t="n">
-        <v>-1012.998</v>
-      </c>
+        <v>-1014.248</v>
+      </c>
+      <c r="HC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7293,8 +7309,9 @@
         <v>-19550.269</v>
       </c>
       <c r="HB13" t="n">
-        <v>-39648.053</v>
-      </c>
+        <v>-39697.01</v>
+      </c>
+      <c r="HC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7625,6 +7642,7 @@
       <c r="HB14" t="n">
         <v>0</v>
       </c>
+      <c r="HC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7955,6 +7973,7 @@
       <c r="HB15" t="n">
         <v>0</v>
       </c>
+      <c r="HC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8451,8 +8470,9 @@
         <v>956.178</v>
       </c>
       <c r="HB16" t="n">
-        <v>0</v>
-      </c>
+        <v>1009.993</v>
+      </c>
+      <c r="HC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8973,8 +8993,9 @@
         <v>37424.172</v>
       </c>
       <c r="HB17" t="n">
-        <v>0</v>
-      </c>
+        <v>39530.463</v>
+      </c>
+      <c r="HC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9471,8 +9492,9 @@
         <v>950.345</v>
       </c>
       <c r="HB18" t="n">
-        <v>1005.735</v>
-      </c>
+        <v>992.866</v>
+      </c>
+      <c r="HC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -10113,8 +10135,9 @@
         <v>37195.881</v>
       </c>
       <c r="HB19" t="n">
-        <v>39363.798</v>
-      </c>
+        <v>38860.103</v>
+      </c>
+      <c r="HC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10611,8 +10634,9 @@
         <v>307.55</v>
       </c>
       <c r="HB20" t="n">
-        <v>0</v>
-      </c>
+        <v>300.675</v>
+      </c>
+      <c r="HC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -11181,8 +11205,9 @@
         <v>12037.318</v>
       </c>
       <c r="HB21" t="n">
-        <v>0</v>
-      </c>
+        <v>11768.219</v>
+      </c>
+      <c r="HC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11679,8 +11704,9 @@
         <v>10.462</v>
       </c>
       <c r="HB22" t="n">
-        <v>0</v>
-      </c>
+        <v>11.18</v>
+      </c>
+      <c r="HC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -12321,8 +12347,9 @@
         <v>409.493</v>
       </c>
       <c r="HB23" t="n">
-        <v>0</v>
-      </c>
+        <v>437.571</v>
+      </c>
+      <c r="HC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -12653,6 +12680,7 @@
       <c r="HB24" t="n">
         <v>0</v>
       </c>
+      <c r="HC24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12983,6 +13011,7 @@
       <c r="HB25" t="n">
         <v>0</v>
       </c>
+      <c r="HC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -13313,6 +13342,7 @@
       <c r="HB26" t="n">
         <v>0</v>
       </c>
+      <c r="HC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13643,6 +13673,7 @@
       <c r="HB27" t="n">
         <v>0</v>
       </c>
+      <c r="HC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13878,9 +13909,8 @@
       <c r="GY28" t="inlineStr"/>
       <c r="GZ28" t="inlineStr"/>
       <c r="HA28" t="inlineStr"/>
-      <c r="HB28" t="n">
-        <v>0</v>
-      </c>
+      <c r="HB28" t="inlineStr"/>
+      <c r="HC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -14116,9 +14146,8 @@
       <c r="GY29" t="inlineStr"/>
       <c r="GZ29" t="inlineStr"/>
       <c r="HA29" t="inlineStr"/>
-      <c r="HB29" t="n">
-        <v>0</v>
-      </c>
+      <c r="HB29" t="inlineStr"/>
+      <c r="HC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14385,8 +14414,9 @@
         <v>199.507</v>
       </c>
       <c r="HB30" t="n">
-        <v>0</v>
-      </c>
+        <v>316.012</v>
+      </c>
+      <c r="HC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -14653,8 +14683,9 @@
         <v>7808.59</v>
       </c>
       <c r="HB31" t="n">
-        <v>0</v>
-      </c>
+        <v>12368.482</v>
+      </c>
+      <c r="HC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -15007,8 +15038,9 @@
         <v>-5.833</v>
       </c>
       <c r="HB32" t="n">
-        <v>1005.735</v>
-      </c>
+        <v>-17.127</v>
+      </c>
+      <c r="HC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -15361,8 +15393,9 @@
         <v>-228.291</v>
       </c>
       <c r="HB33" t="n">
-        <v>39363.798</v>
-      </c>
+        <v>-670.36</v>
+      </c>
+      <c r="HC33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
